--- a/data/D_ÓRGANOS ADMINISTRATIVOS - ASESORAMIENTO.xlsx
+++ b/data/D_ÓRGANOS ADMINISTRATIVOS - ASESORAMIENTO.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1992DC43-5202-4429-93EF-FC1021D639B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE79E3-0CB6-4C62-B083-4A76DF43FF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8352F88-60C7-410C-9E21-235AF1695763}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23516962-2012-42B8-AC02-7FCF26781261}"/>
   </bookViews>
   <sheets>
-    <sheet name="ÓRGANOS ADMINISTRATIVOS - ASESO" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,51 +60,54 @@
     <t>ANEXO</t>
   </si>
   <si>
-    <t>AYALA SOLIS NIDIA ZORAIDA</t>
-  </si>
-  <si>
-    <t>Directora - OFICINA DE ASESORIA JURIDICA</t>
+    <t>ÑIQUEN QUESQUEN JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>Director - OFICINA DE ASESORIA JURIDICA</t>
   </si>
   <si>
     <t>OAJ.</t>
   </si>
   <si>
+    <t>401-2024-R.</t>
+  </si>
+  <si>
+    <t>465-2872</t>
+  </si>
+  <si>
+    <t>jmniquenq@unac.pe</t>
+  </si>
+  <si>
+    <t>oal@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>1049-1050</t>
+  </si>
+  <si>
+    <t>VALIENTE HAYASHIDA VANESSA HAYDEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Jefatura - UNIDAD DE ASUNTOS ADMINISTRATIVOS Y JUDICIALES</t>
+  </si>
+  <si>
+    <t>079-2024-R.</t>
+  </si>
+  <si>
+    <t>vhvalienteh@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>ALVARADO PERICHE ABEL GUSTAVO</t>
+  </si>
+  <si>
+    <t>Director - OFICINA DE PLANEAMIENTO Y PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>OPP.</t>
+  </si>
+  <si>
     <t>001-2023-R.</t>
   </si>
   <si>
-    <t>465-2872</t>
-  </si>
-  <si>
-    <t>nzayalas@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>oal@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>1049-1050</t>
-  </si>
-  <si>
-    <t>VALIENTE HAYASHIDA VANESSA HAYDEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Jefatura - UNIDAD DE ASUNTOS ADMINISTRATIVOS Y JUDICIALES</t>
-  </si>
-  <si>
-    <t>079-2024-R.</t>
-  </si>
-  <si>
-    <t>vhvalienteh@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>ALVARADO PERICHE ABEL GUSTAVO</t>
-  </si>
-  <si>
-    <t>Director - OFICINA DE PLANEAMIENTO Y PRESUPUESTO</t>
-  </si>
-  <si>
-    <t>OPP.</t>
-  </si>
-  <si>
     <t>453-4015</t>
   </si>
   <si>
@@ -183,25 +186,22 @@
     <t>1091-1092</t>
   </si>
   <si>
-    <t>VIGO INGAR KATIA</t>
+    <t>GARCÍA FLORES SEGUNDO AGUSTÍN</t>
   </si>
   <si>
     <t xml:space="preserve">   Jefatura - UNIDAD DE EVALUACIÓN DE LA CALIDAD UNIVERSITARIA</t>
   </si>
   <si>
-    <t>184-2021-CU</t>
-  </si>
-  <si>
-    <t>kvigoi@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>HUAMÁN MEJÍA MARÍA CELINA</t>
+    <t>sagarciaf@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>ZELA PACHECO LAURA MARGARITA</t>
   </si>
   <si>
     <t xml:space="preserve">   Jefatura - UNIDAD DE CAPACITACIÓN Y GESTIÓN DE LA CALIDAD UNIVERSITARIA</t>
   </si>
   <si>
-    <t>mchuamanm@unac.edu.pe</t>
+    <t>lmzelap@unacedu.pe</t>
   </si>
   <si>
     <t>BELLO LOZANO ELIADA</t>
@@ -255,7 +255,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -304,11 +304,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -321,17 +325,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -355,12 +348,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -371,9 +373,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -419,58 +419,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -496,345 +493,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -869,6 +527,297 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -883,19 +832,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EAA1242-7B41-4F6C-BA48-D5E73D43E85A}" name="Tabla2" displayName="Tabla2" ref="A1:H14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A1:H14" xr:uid="{967A760D-BEBE-497D-9838-F2E4B1ECD00B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4710B80-50F7-4124-AF02-8E8B9DEBD8CF}" name="Tabla1" displayName="Tabla1" ref="A1:H14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:H14" xr:uid="{F4710B80-50F7-4124-AF02-8E8B9DEBD8CF}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5CD80043-DDF4-44B9-86E9-6D98679B185E}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B9F07ADE-42B4-48A5-9BAC-67A9EDA6B412}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2BB7CD3F-418D-4383-BE2D-BF89233BB9DD}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6277583D-AF39-4BAD-9093-D3CA646A039D}" name="RESOL." dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{08878005-BA1E-4457-879F-C2FA37EEFBCD}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{946E6EA2-5846-4242-841D-B2F4616DE61A}" name="CORREO INSTITUCIONAL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{358F0D1A-7162-47DA-BC1F-41A6B339D429}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{5055E8BC-BE0A-4983-9673-BAE7DB24A382}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{08BA5A10-9FDA-4F2C-BFFF-1BEE307A615B}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0123D3B8-B5AD-48B1-8489-EE3C29B1B2A2}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{25B6EC68-DF3E-4797-8813-B989D0E8B4A3}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4DE617C3-7E1B-40E5-9BB5-60CC7F1BB106}" name="RESOL." dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{608A7226-5AEB-46C1-8C9A-2887BFF7E670}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F4CDE1C0-2F1C-4A65-94E0-72D74E513B89}" name="CORREO INSTITUCIONAL" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4B7DA063-6405-4AE9-A7CF-F114372906C4}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{CE1D1E66-0294-42A8-9807-5F434ACC7B39}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1195,372 +1144,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF84B77-FACD-4421-803C-23A57F4CC705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3416AB43-9EB0-423C-8763-A46A5624D777}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="56.25">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="67.5">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="78.75">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="56.25">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="9"/>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="56.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" ht="67.5">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="101.25">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:8" ht="123.75">
+      <c r="A7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="112.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9"/>
+    <row r="8" spans="1:8" ht="123.75">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="56.25">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:8" ht="67.5">
+      <c r="A9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="45">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:8" ht="78.75">
+      <c r="A10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="78.75">
-      <c r="A11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="90">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:8" ht="101.25">
+      <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="67.5">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:8" ht="101.25">
+      <c r="A13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="78.75">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:8" ht="101.25">
+      <c r="A14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>1124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" xr:uid="{6C92FE4A-7225-41C6-A072-453166BA6549}"/>
-    <hyperlink ref="G14" r:id="rId2" xr:uid="{F5D19BA1-891A-4065-B4F0-7D1C8CE2C1D0}"/>
-    <hyperlink ref="G2:G3" r:id="rId3" display="mailto:dugac@unac.edu.pe" xr:uid="{779081D3-EC4C-4E0D-853E-4C61F04808F8}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{B6C1425C-D291-42AF-BF56-79C9A5D66934}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{23A31C4C-C798-4399-87A3-E01640AA80F8}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{5F739F8C-E4C2-4DBA-BA45-03626F7139FC}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{2E126C1B-F438-44E5-A25D-439A9C96F12A}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{4EEE7101-6DDF-48D5-889F-EB868EBC8319}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{D782AA7F-9F46-4795-A753-FEE47F8A56BD}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{2F891D8D-ACCF-420D-85A0-56CF8AEE26AB}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{0A3DDB96-60C6-422B-8EBF-8295C797897A}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{1482112E-9CE4-4F0B-B820-F36455F41082}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{B87EB185-A9FB-468D-A4CB-AEECC9430948}"/>
-    <hyperlink ref="F6" r:id="rId14" xr:uid="{0D9E3D1C-9E03-46E6-9232-B9F6A2464F0F}"/>
-    <hyperlink ref="D11" r:id="rId15" xr:uid="{D7561949-E149-4B9E-A1C8-674D59F99037}"/>
-    <hyperlink ref="D12" r:id="rId16" xr:uid="{0DEE05DA-9D7F-4606-B2C1-BBBE288CB20F}"/>
-    <hyperlink ref="D13" r:id="rId17" xr:uid="{244A7F47-6390-48DA-868C-2A6755B5FE09}"/>
-    <hyperlink ref="D2" r:id="rId18" xr:uid="{8C4B5FA9-462D-47E0-955B-4EBB4F381413}"/>
-    <hyperlink ref="D4" r:id="rId19" xr:uid="{1A8D6736-F10A-4CDA-BBC7-D7C9EF8BFAA0}"/>
-    <hyperlink ref="D6" r:id="rId20" xr:uid="{0891296F-90B1-4CAF-9CA1-84EB8AEA39AC}"/>
-    <hyperlink ref="D7" r:id="rId21" xr:uid="{47F9EAA8-6319-4A3A-814D-007E33DA6B57}"/>
-    <hyperlink ref="D9" r:id="rId22" xr:uid="{A12AF1FD-3C33-453E-BFE6-3B1CF5F42123}"/>
-    <hyperlink ref="G10" r:id="rId23" xr:uid="{DD5770EC-C107-435E-B6AA-CBD82E52DFBB}"/>
-    <hyperlink ref="F10" r:id="rId24" xr:uid="{3C90528C-E1CD-4C40-A9BF-1A24C732614F}"/>
-    <hyperlink ref="D5" r:id="rId25" xr:uid="{FEDE5DFC-5E0F-4C6B-95B9-5A310F3E913A}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{DCF13FDA-90AE-4956-AEF5-00A5F69C69A9}"/>
-    <hyperlink ref="D10" r:id="rId27" xr:uid="{B9669381-2C91-4E37-A0CA-0FA5546FBA72}"/>
-    <hyperlink ref="D3" r:id="rId28" xr:uid="{D57A419C-CF75-47DE-A7D1-1AEB124DD27E}"/>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{E83BBB2A-D047-4B2A-82DF-E790A5FDD6F0}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{19AB0590-8828-459F-897D-444B6D5EA962}"/>
+    <hyperlink ref="G2:G3" r:id="rId3" display="mailto:dugac@unac.edu.pe" xr:uid="{1A912E40-B520-4844-BB1B-E492A6584E4B}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{21D4D947-BC0B-4B6D-BF68-A11C21CE89C9}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{FDEC35A9-22B6-4718-BF19-0F5B7C496184}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{2139368E-B405-45AB-978A-D3187321EAF0}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{B6436711-04B2-4C1E-A20E-785680547AA2}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{DEEBA7D4-7ABD-4C7A-9A28-E213CD602ACA}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{164FA941-4DE5-45B1-A0E4-9D93D364E001}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{EC885729-ED1A-4791-9574-8CD7F492ABEB}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{0A734FC3-EA7F-4320-B32E-7276AFD2CB2D}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{818C5A27-0320-4E39-9E57-10FA0F4F7244}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{8C80984E-3AB1-4733-83A5-F086E5CC92DA}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{86EA1F86-C195-4088-95F9-C9670F98ED59}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{68D33169-48F4-490B-8857-B4A58CAFCF96}"/>
+    <hyperlink ref="D2" r:id="rId16" display="001-2023-R." xr:uid="{FEF1BE16-4199-421E-A9F1-D9961979057C}"/>
+    <hyperlink ref="D4" r:id="rId17" xr:uid="{CE74902A-F15C-493A-90C5-2986F7F45B90}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{D4B3375B-62DB-4311-B041-974ABBA360DB}"/>
+    <hyperlink ref="D7" r:id="rId19" xr:uid="{F68BDC45-78B8-4954-AE6A-41FAD0E2E43A}"/>
+    <hyperlink ref="D9" r:id="rId20" xr:uid="{F5B1BE09-FC81-48C4-96AB-62E97253AFD3}"/>
+    <hyperlink ref="G10" r:id="rId21" xr:uid="{C353E458-C606-4026-8990-7DA8C68EF710}"/>
+    <hyperlink ref="F10" r:id="rId22" xr:uid="{C236D1EE-341A-4049-81BC-1D773F11BE12}"/>
+    <hyperlink ref="D5" r:id="rId23" xr:uid="{8F046CD5-D34A-4CB9-9C4F-7650C3D31A6F}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{D3C9CF62-332D-43E5-A930-8748747D6B02}"/>
+    <hyperlink ref="D10" r:id="rId25" xr:uid="{A8BCB086-D04B-4535-AD60-B06F86DCBAC6}"/>
+    <hyperlink ref="D3" r:id="rId26" xr:uid="{4E4C4D3B-7CAA-4B06-88DC-8179CBEAD3A5}"/>
+    <hyperlink ref="D11" r:id="rId27" xr:uid="{8714EB6B-E447-4708-AC4A-FC8375F1CC72}"/>
+    <hyperlink ref="G11" r:id="rId28" xr:uid="{0147B7F5-2DE4-423E-AF62-9BDC1C872865}"/>
+    <hyperlink ref="D12" r:id="rId29" xr:uid="{43F38C54-10F8-408E-AA1E-554709F0823E}"/>
+    <hyperlink ref="G12" r:id="rId30" xr:uid="{8FC44F9F-AF68-42FB-8E72-1EF812C8C31B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>